--- a/data/clima_aeropuerto.xlsx
+++ b/data/clima_aeropuerto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiocollaobahamondes/Desktop/desafio/pred_atraso_vuelos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F86999-3E08-B347-BA3D-5C2F02FA7F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E680B6C-63A6-344E-B9CC-3870CBCC70E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="540" windowWidth="25480" windowHeight="10420" xr2:uid="{CF5C53D1-8337-4940-ABAE-751039F4CC2A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="35">
   <si>
     <t>temperatura_maxima</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>presion_minima</t>
-  </si>
-  <si>
-    <t>29, 6</t>
-  </si>
-  <si>
-    <t>11.1</t>
   </si>
   <si>
     <t>0.0</t>
@@ -156,8 +150,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -188,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,11 +511,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AA44E1-54AD-324E-BFC7-867A04642C67}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,20 +528,20 @@
     <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -551,19 +550,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>36</v>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42736</v>
       </c>
@@ -585,14 +584,14 @@
       <c r="G2" s="3">
         <v>1014</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>29.6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42737</v>
       </c>
@@ -614,14 +613,14 @@
       <c r="G3" s="3">
         <v>1013</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>35.200000000000003</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42738</v>
       </c>
@@ -643,14 +642,14 @@
       <c r="G4" s="3">
         <v>1012</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>29.6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42739</v>
       </c>
@@ -672,14 +671,14 @@
       <c r="G5" s="3">
         <v>1010</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>27.8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42740</v>
       </c>
@@ -701,14 +700,14 @@
       <c r="G6" s="3">
         <v>1010</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>31.5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42741</v>
       </c>
@@ -730,14 +729,14 @@
       <c r="G7" s="3">
         <v>1011</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>25.9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42742</v>
       </c>
@@ -759,14 +758,14 @@
       <c r="G8" s="3">
         <v>1012</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>25.9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42743</v>
       </c>
@@ -788,14 +787,14 @@
       <c r="G9" s="3">
         <v>1012</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42744</v>
       </c>
@@ -817,14 +816,14 @@
       <c r="G10" s="3">
         <v>1012</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>27.8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42745</v>
       </c>
@@ -846,14 +845,14 @@
       <c r="G11" s="3">
         <v>1012</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>29.6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42746</v>
       </c>
@@ -875,14 +874,14 @@
       <c r="G12" s="3">
         <v>1010</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>24.1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42747</v>
       </c>
@@ -904,14 +903,14 @@
       <c r="G13" s="3">
         <v>1010</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>31.5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42748</v>
       </c>
@@ -933,14 +932,14 @@
       <c r="G14" s="3">
         <v>1010</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>27.8</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42749</v>
       </c>
@@ -962,14 +961,14 @@
       <c r="G15" s="3">
         <v>1009</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42750</v>
       </c>
@@ -991,14 +990,14 @@
       <c r="G16" s="3">
         <v>1011</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>31.5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42751</v>
       </c>
@@ -1020,14 +1019,14 @@
       <c r="G17" s="3">
         <v>1012</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>29.6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42752</v>
       </c>
@@ -1049,14 +1048,14 @@
       <c r="G18" s="3">
         <v>1010</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>22.2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42753</v>
       </c>
@@ -1078,14 +1077,14 @@
       <c r="G19" s="3">
         <v>1011</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42754</v>
       </c>
@@ -1107,14 +1106,14 @@
       <c r="G20" s="3">
         <v>1012</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>25.9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42755</v>
       </c>
@@ -1136,14 +1135,14 @@
       <c r="G21" s="3">
         <v>1010</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42756</v>
       </c>
@@ -1165,14 +1164,14 @@
       <c r="G22" s="3">
         <v>1011</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42757</v>
       </c>
@@ -1194,14 +1193,14 @@
       <c r="G23" s="3">
         <v>1013</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42758</v>
       </c>
@@ -1223,14 +1222,14 @@
       <c r="G24" s="3">
         <v>1014</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>27.8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42759</v>
       </c>
@@ -1252,14 +1251,14 @@
       <c r="G25" s="3">
         <v>1012</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>25.9</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42760</v>
       </c>
@@ -1281,14 +1280,14 @@
       <c r="G26" s="3">
         <v>1011</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <v>27.8</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42761</v>
       </c>
@@ -1310,14 +1309,14 @@
       <c r="G27" s="3">
         <v>1011</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>29.6</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42762</v>
       </c>
@@ -1339,14 +1338,14 @@
       <c r="G28" s="3">
         <v>1012</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="4">
         <v>27.8</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42763</v>
       </c>
@@ -1368,14 +1367,14 @@
       <c r="G29" s="3">
         <v>1010</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <v>31.5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42764</v>
       </c>
@@ -1397,14 +1396,14 @@
       <c r="G30" s="3">
         <v>1009</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4">
         <v>31.5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42765</v>
       </c>
@@ -1426,14 +1425,14 @@
       <c r="G31" s="3">
         <v>1011</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42766</v>
       </c>
@@ -1455,14 +1454,14 @@
       <c r="G32" s="3">
         <v>1011</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <v>31.5</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42767</v>
       </c>
@@ -1484,14 +1483,14 @@
       <c r="G33" s="3">
         <v>1010</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <v>31.5</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42768</v>
       </c>
@@ -1513,14 +1512,14 @@
       <c r="G34" s="3">
         <v>1010</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <v>27.8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42769</v>
       </c>
@@ -1542,14 +1541,14 @@
       <c r="G35" s="3">
         <v>1012</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <v>24.1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42770</v>
       </c>
@@ -1571,14 +1570,14 @@
       <c r="G36" s="3">
         <v>1014</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4">
         <v>24.1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42771</v>
       </c>
@@ -1600,14 +1599,14 @@
       <c r="G37" s="3">
         <v>1010</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="4">
         <v>25.9</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42772</v>
       </c>
@@ -1629,14 +1628,14 @@
       <c r="G38" s="3">
         <v>1009</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4">
         <v>29.6</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42773</v>
       </c>
@@ -1658,14 +1657,14 @@
       <c r="G39" s="3">
         <v>1010</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="4">
         <v>29.6</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42774</v>
       </c>
@@ -1687,14 +1686,14 @@
       <c r="G40" s="3">
         <v>1012</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="4">
         <v>24.1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42775</v>
       </c>
@@ -1716,14 +1715,14 @@
       <c r="G41" s="3">
         <v>1012</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="4">
         <v>29.6</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42776</v>
       </c>
@@ -1745,14 +1744,14 @@
       <c r="G42" s="3">
         <v>1012</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="4">
         <v>27.8</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42777</v>
       </c>
@@ -1774,14 +1773,14 @@
       <c r="G43" s="3">
         <v>1013</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="4">
         <v>27.8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42778</v>
       </c>
@@ -1803,14 +1802,14 @@
       <c r="G44" s="3">
         <v>1010</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="4">
         <v>27.8</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42779</v>
       </c>
@@ -1832,14 +1831,14 @@
       <c r="G45" s="3">
         <v>1010</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="4">
         <v>31.5</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42780</v>
       </c>
@@ -1861,14 +1860,14 @@
       <c r="G46" s="3">
         <v>1011</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="4">
         <v>24.1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42781</v>
       </c>
@@ -1890,14 +1889,14 @@
       <c r="G47" s="3">
         <v>1014</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="4">
         <v>29.6</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42782</v>
       </c>
@@ -1919,14 +1918,14 @@
       <c r="G48" s="3">
         <v>1015</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="4">
         <v>31.5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>42783</v>
       </c>
@@ -1948,14 +1947,14 @@
       <c r="G49" s="3">
         <v>1014</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="4">
         <v>25.9</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42784</v>
       </c>
@@ -1977,14 +1976,14 @@
       <c r="G50" s="3">
         <v>1016</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="4">
         <v>24.1</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42785</v>
       </c>
@@ -2006,14 +2005,14 @@
       <c r="G51" s="3">
         <v>1014</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="4">
         <v>27.8</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>42786</v>
       </c>
@@ -2035,14 +2034,14 @@
       <c r="G52" s="3">
         <v>1013</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="4">
         <v>25.9</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42787</v>
       </c>
@@ -2064,14 +2063,14 @@
       <c r="G53" s="3">
         <v>1012</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="4">
         <v>25.9</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>42788</v>
       </c>
@@ -2093,14 +2092,14 @@
       <c r="G54" s="3">
         <v>1009</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
+      <c r="H54" s="4">
+        <v>29.6</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>42789</v>
       </c>
@@ -2122,14 +2121,14 @@
       <c r="G55" s="3">
         <v>1010</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="4">
         <v>24.1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>42790</v>
       </c>
@@ -2151,14 +2150,14 @@
       <c r="G56" s="3">
         <v>1012</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="4">
         <v>24.1</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>42791</v>
       </c>
@@ -2180,14 +2179,14 @@
       <c r="G57" s="3">
         <v>1011</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="4">
         <v>27.8</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>42792</v>
       </c>
@@ -2209,14 +2208,14 @@
       <c r="G58" s="3">
         <v>1011</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="4">
         <v>24.1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>42793</v>
       </c>
@@ -2238,14 +2237,14 @@
       <c r="G59" s="3">
         <v>1013</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="4">
         <v>25.9</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>42794</v>
       </c>
@@ -2267,14 +2266,14 @@
       <c r="G60" s="3">
         <v>1011</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="4">
         <v>24.1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>42795</v>
       </c>
@@ -2296,14 +2295,14 @@
       <c r="G61" s="3">
         <v>1010</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="4">
         <v>25.9</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42796</v>
       </c>
@@ -2325,14 +2324,14 @@
       <c r="G62" s="3">
         <v>1011</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42797</v>
       </c>
@@ -2354,14 +2353,14 @@
       <c r="G63" s="3">
         <v>1012</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="4">
         <v>29.6</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42798</v>
       </c>
@@ -2383,14 +2382,14 @@
       <c r="G64" s="3">
         <v>1013</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="4">
         <v>22.2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42799</v>
       </c>
@@ -2412,14 +2411,14 @@
       <c r="G65" s="3">
         <v>1011</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="4">
         <v>25.9</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42800</v>
       </c>
@@ -2441,14 +2440,14 @@
       <c r="G66" s="3">
         <v>1010</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42801</v>
       </c>
@@ -2470,14 +2469,14 @@
       <c r="G67" s="3">
         <v>1010</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="4">
         <v>22.2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42802</v>
       </c>
@@ -2499,14 +2498,14 @@
       <c r="G68" s="3">
         <v>1012</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="4">
         <v>27.8</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42803</v>
       </c>
@@ -2528,14 +2527,14 @@
       <c r="G69" s="3">
         <v>1014</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42804</v>
       </c>
@@ -2557,14 +2556,14 @@
       <c r="G70" s="3">
         <v>1014</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="4">
         <v>25.9</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42805</v>
       </c>
@@ -2586,14 +2585,14 @@
       <c r="G71" s="3">
         <v>1015</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="4">
         <v>24.1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42806</v>
       </c>
@@ -2615,14 +2614,14 @@
       <c r="G72" s="3">
         <v>1009</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>42807</v>
       </c>
@@ -2644,14 +2643,14 @@
       <c r="G73" s="3">
         <v>1009</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="4">
         <v>22.2</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>42808</v>
       </c>
@@ -2673,14 +2672,14 @@
       <c r="G74" s="3">
         <v>1011</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="4">
         <v>22.2</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>42809</v>
       </c>
@@ -2702,14 +2701,14 @@
       <c r="G75" s="3">
         <v>1014</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="4">
         <v>24.1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42810</v>
       </c>
@@ -2731,14 +2730,14 @@
       <c r="G76" s="3">
         <v>1014</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="4">
         <v>27.8</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>42811</v>
       </c>
@@ -2760,14 +2759,14 @@
       <c r="G77" s="3">
         <v>1014</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42812</v>
       </c>
@@ -2789,14 +2788,14 @@
       <c r="G78" s="3">
         <v>1013</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="4">
         <v>25.9</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>42813</v>
       </c>
@@ -2818,14 +2817,14 @@
       <c r="G79" s="3">
         <v>1014</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="4">
         <v>24.1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>42814</v>
       </c>
@@ -2847,14 +2846,14 @@
       <c r="G80" s="3">
         <v>1014</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="4">
         <v>25.9</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>42815</v>
       </c>
@@ -2876,14 +2875,14 @@
       <c r="G81" s="3">
         <v>1013</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="4">
         <v>25.9</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>42816</v>
       </c>
@@ -2905,14 +2904,14 @@
       <c r="G82" s="3">
         <v>1014</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="4">
         <v>27.8</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>42817</v>
       </c>
@@ -2934,14 +2933,14 @@
       <c r="G83" s="3">
         <v>1013</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="4">
         <v>25.9</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>42818</v>
       </c>
@@ -2963,14 +2962,14 @@
       <c r="G84" s="3">
         <v>1015</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="4">
         <v>18.5</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>42819</v>
       </c>
@@ -2992,14 +2991,14 @@
       <c r="G85" s="3">
         <v>1013</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="4">
         <v>25.9</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42820</v>
       </c>
@@ -3021,14 +3020,14 @@
       <c r="G86" s="3">
         <v>1014</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42821</v>
       </c>
@@ -3050,14 +3049,14 @@
       <c r="G87" s="3">
         <v>1013</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="4">
         <v>22.2</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42822</v>
       </c>
@@ -3079,14 +3078,14 @@
       <c r="G88" s="3">
         <v>1013</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="4">
         <v>24.1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42823</v>
       </c>
@@ -3108,14 +3107,14 @@
       <c r="G89" s="3">
         <v>1015</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="4">
         <v>22.2</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42824</v>
       </c>
@@ -3137,14 +3136,14 @@
       <c r="G90" s="3">
         <v>1012</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42825</v>
       </c>
@@ -3166,14 +3165,14 @@
       <c r="G91" s="3">
         <v>1013</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42826</v>
       </c>
@@ -3195,14 +3194,14 @@
       <c r="G92" s="3">
         <v>1016</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="4">
         <v>24.1</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42827</v>
       </c>
@@ -3224,14 +3223,14 @@
       <c r="G93" s="3">
         <v>1016</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="4">
         <v>18.5</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42828</v>
       </c>
@@ -3253,14 +3252,14 @@
       <c r="G94" s="3">
         <v>1011</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="4">
         <v>22.2</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42829</v>
       </c>
@@ -3282,14 +3281,14 @@
       <c r="G95" s="3">
         <v>1013</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="4">
         <v>22.2</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42830</v>
       </c>
@@ -3311,14 +3310,14 @@
       <c r="G96" s="3">
         <v>1014</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="4">
         <v>18.5</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42831</v>
       </c>
@@ -3340,14 +3339,14 @@
       <c r="G97" s="3">
         <v>1011</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="4">
         <v>27.8</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42832</v>
       </c>
@@ -3369,14 +3368,14 @@
       <c r="G98" s="3">
         <v>1013</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="4">
         <v>27.8</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42833</v>
       </c>
@@ -3398,14 +3397,14 @@
       <c r="G99" s="3">
         <v>1015</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="4">
         <v>25.9</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42834</v>
       </c>
@@ -3427,14 +3426,14 @@
       <c r="G100" s="3">
         <v>1014</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42835</v>
       </c>
@@ -3456,14 +3455,14 @@
       <c r="G101" s="3">
         <v>1014</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="4">
         <v>14.8</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42836</v>
       </c>
@@ -3485,14 +3484,14 @@
       <c r="G102" s="3">
         <v>1010</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42837</v>
       </c>
@@ -3514,14 +3513,14 @@
       <c r="G103" s="3">
         <v>1012</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="4">
         <v>25.9</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42838</v>
       </c>
@@ -3543,14 +3542,14 @@
       <c r="G104" s="3">
         <v>1012</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42839</v>
       </c>
@@ -3572,14 +3571,14 @@
       <c r="G105" s="3">
         <v>1013</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="4">
         <v>27.8</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42840</v>
       </c>
@@ -3601,14 +3600,14 @@
       <c r="G106" s="3">
         <v>1014</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="4">
         <v>13</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42841</v>
       </c>
@@ -3630,14 +3629,14 @@
       <c r="G107" s="3">
         <v>1012</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="4">
         <v>16.7</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42842</v>
       </c>
@@ -3659,14 +3658,14 @@
       <c r="G108" s="3">
         <v>1011</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="4">
         <v>22.2</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42843</v>
       </c>
@@ -3688,14 +3687,14 @@
       <c r="G109" s="3">
         <v>1012</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="4">
         <v>37</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42844</v>
       </c>
@@ -3717,14 +3716,14 @@
       <c r="G110" s="3">
         <v>1017</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42845</v>
       </c>
@@ -3746,14 +3745,14 @@
       <c r="G111" s="3">
         <v>1020</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="4">
         <v>16.7</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42846</v>
       </c>
@@ -3775,14 +3774,14 @@
       <c r="G112" s="3">
         <v>1016</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>5</v>
+      <c r="H112" s="4">
+        <v>11.1</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42847</v>
       </c>
@@ -3804,14 +3803,14 @@
       <c r="G113" s="3">
         <v>1015</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42848</v>
       </c>
@@ -3833,14 +3832,14 @@
       <c r="G114" s="3">
         <v>1015</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="4">
         <v>25.9</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42849</v>
       </c>
@@ -3862,14 +3861,14 @@
       <c r="G115" s="3">
         <v>1015</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="4">
         <v>22.2</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42850</v>
       </c>
@@ -3891,14 +3890,14 @@
       <c r="G116" s="3">
         <v>1016</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="4">
         <v>16.7</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>42851</v>
       </c>
@@ -3920,14 +3919,14 @@
       <c r="G117" s="3">
         <v>1017</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="4">
         <v>16.7</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42852</v>
       </c>
@@ -3949,14 +3948,14 @@
       <c r="G118" s="3">
         <v>1016</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="4">
         <v>24.1</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>42853</v>
       </c>
@@ -3978,14 +3977,14 @@
       <c r="G119" s="3">
         <v>1015</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>42854</v>
       </c>
@@ -4007,14 +4006,14 @@
       <c r="G120" s="3">
         <v>1013</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="4">
         <v>16.7</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42855</v>
       </c>
@@ -4036,14 +4035,14 @@
       <c r="G121" s="3">
         <v>1012</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="4">
         <v>16.7</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42856</v>
       </c>
@@ -4065,14 +4064,14 @@
       <c r="G122" s="3">
         <v>1014</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="4">
         <v>29.6</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>42857</v>
       </c>
@@ -4094,14 +4093,14 @@
       <c r="G123" s="3">
         <v>1018</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="4">
         <v>11.1</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42858</v>
       </c>
@@ -4123,14 +4122,14 @@
       <c r="G124" s="3">
         <v>1014</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="4">
         <v>22.2</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>42859</v>
       </c>
@@ -4152,11 +4151,11 @@
       <c r="G125" s="3">
         <v>1012</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,16 +4178,16 @@
         <v>1015</v>
       </c>
       <c r="G126" s="3">
-        <v>931</v>
-      </c>
-      <c r="H126" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H126" s="4">
         <v>29.6</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>42861</v>
       </c>
@@ -4210,14 +4209,14 @@
       <c r="G127" s="3">
         <v>1011</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="4">
         <v>14.8</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42862</v>
       </c>
@@ -4239,14 +4238,14 @@
       <c r="G128" s="3">
         <v>1015</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="4">
         <v>16.7</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42863</v>
       </c>
@@ -4268,14 +4267,14 @@
       <c r="G129" s="3">
         <v>1014</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="4">
         <v>14.8</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>42864</v>
       </c>
@@ -4297,14 +4296,14 @@
       <c r="G130" s="3">
         <v>1012</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="4">
         <v>13</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42865</v>
       </c>
@@ -4326,14 +4325,14 @@
       <c r="G131" s="3">
         <v>1011</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="4">
         <v>14.8</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>42866</v>
       </c>
@@ -4355,14 +4354,14 @@
       <c r="G132" s="3">
         <v>1012</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="4">
         <v>18.5</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42867</v>
       </c>
@@ -4384,14 +4383,14 @@
       <c r="G133" s="3">
         <v>1012</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="4">
         <v>18.5</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42868</v>
       </c>
@@ -4413,14 +4412,14 @@
       <c r="G134" s="3">
         <v>1014</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>42869</v>
       </c>
@@ -4442,14 +4441,14 @@
       <c r="G135" s="3">
         <v>1017</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42870</v>
       </c>
@@ -4471,14 +4470,14 @@
       <c r="G136" s="3">
         <v>1015</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="4">
         <v>11.1</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>42871</v>
       </c>
@@ -4500,14 +4499,14 @@
       <c r="G137" s="3">
         <v>1017</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="4">
         <v>14.8</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42872</v>
       </c>
@@ -4529,14 +4528,14 @@
       <c r="G138" s="3">
         <v>1015</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="4">
         <v>14.8</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>42873</v>
       </c>
@@ -4558,14 +4557,14 @@
       <c r="G139" s="3">
         <v>1015</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42874</v>
       </c>
@@ -4587,14 +4586,14 @@
       <c r="G140" s="3">
         <v>1018</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="4">
         <v>11.1</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42875</v>
       </c>
@@ -4616,14 +4615,14 @@
       <c r="G141" s="3">
         <v>1018</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="4">
         <v>7.4</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42876</v>
       </c>
@@ -4645,14 +4644,14 @@
       <c r="G142" s="3">
         <v>1016</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="4">
         <v>11.1</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42877</v>
       </c>
@@ -4674,14 +4673,14 @@
       <c r="G143" s="3">
         <v>1014</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="4">
         <v>11.1</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42878</v>
       </c>
@@ -4703,14 +4702,14 @@
       <c r="G144" s="3">
         <v>1015</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="4">
         <v>14.8</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42879</v>
       </c>
@@ -4732,14 +4731,14 @@
       <c r="G145" s="3">
         <v>1013</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="4">
         <v>14.8</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42880</v>
       </c>
@@ -4761,14 +4760,14 @@
       <c r="G146" s="3">
         <v>1014</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="4">
         <v>16.7</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>42881</v>
       </c>
@@ -4790,14 +4789,14 @@
       <c r="G147" s="3">
         <v>1019</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="4">
         <v>11.1</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42882</v>
       </c>
@@ -4819,14 +4818,14 @@
       <c r="G148" s="3">
         <v>1019</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="4">
         <v>14.8</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42883</v>
       </c>
@@ -4848,14 +4847,14 @@
       <c r="G149" s="3">
         <v>1018</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="4">
         <v>14.8</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42884</v>
       </c>
@@ -4877,14 +4876,14 @@
       <c r="G150" s="3">
         <v>1017</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="4">
         <v>16.7</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42885</v>
       </c>
@@ -4906,14 +4905,14 @@
       <c r="G151" s="3">
         <v>1020</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="4">
         <v>11.1</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42886</v>
       </c>
@@ -4935,14 +4934,14 @@
       <c r="G152" s="3">
         <v>1019</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="4">
         <v>14.8</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42887</v>
       </c>
@@ -4964,14 +4963,14 @@
       <c r="G153" s="3">
         <v>1017</v>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="4">
         <v>11.1</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>42888</v>
       </c>
@@ -4993,14 +4992,14 @@
       <c r="G154" s="3">
         <v>1015</v>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="4">
         <v>18.5</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42889</v>
       </c>
@@ -5022,14 +5021,14 @@
       <c r="G155" s="3">
         <v>1018</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="4">
         <v>16.7</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>42890</v>
       </c>
@@ -5051,14 +5050,14 @@
       <c r="G156" s="3">
         <v>1017</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="4">
         <v>13</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>42891</v>
       </c>
@@ -5080,14 +5079,14 @@
       <c r="G157" s="3">
         <v>1017</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="4">
         <v>13</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>42892</v>
       </c>
@@ -5109,14 +5108,14 @@
       <c r="G158" s="3">
         <v>1016</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="4">
         <v>13</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>42893</v>
       </c>
@@ -5138,14 +5137,14 @@
       <c r="G159" s="3">
         <v>1015</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>42894</v>
       </c>
@@ -5167,14 +5166,14 @@
       <c r="G160" s="3">
         <v>1025</v>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="4">
         <v>16.7</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>42895</v>
       </c>
@@ -5196,14 +5195,14 @@
       <c r="G161" s="3">
         <v>1022</v>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="4">
         <v>11.1</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>42896</v>
       </c>
@@ -5225,14 +5224,14 @@
       <c r="G162" s="3">
         <v>1015</v>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="4">
         <v>18.5</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>42897</v>
       </c>
@@ -5254,14 +5253,14 @@
       <c r="G163" s="3">
         <v>1016</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="4">
         <v>18.5</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>42898</v>
       </c>
@@ -5283,14 +5282,14 @@
       <c r="G164" s="3">
         <v>1014</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="4">
         <v>13</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>42899</v>
       </c>
@@ -5312,14 +5311,14 @@
       <c r="G165" s="3">
         <v>1016</v>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="4">
         <v>13</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>42900</v>
       </c>
@@ -5341,14 +5340,14 @@
       <c r="G166" s="3">
         <v>1016</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="4">
         <v>13</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>42901</v>
       </c>
@@ -5370,14 +5369,14 @@
       <c r="G167" s="3">
         <v>1014</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="4">
         <v>14.8</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>42902</v>
       </c>
@@ -5399,14 +5398,14 @@
       <c r="G168" s="3">
         <v>1010</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="4">
         <v>38.9</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>42903</v>
       </c>
@@ -5428,14 +5427,14 @@
       <c r="G169" s="3">
         <v>1012</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>42904</v>
       </c>
@@ -5457,14 +5456,14 @@
       <c r="G170" s="3">
         <v>1022</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="4">
         <v>11.1</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>42905</v>
       </c>
@@ -5486,14 +5485,14 @@
       <c r="G171" s="3">
         <v>1017</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="4">
         <v>14.8</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>42906</v>
       </c>
@@ -5515,14 +5514,14 @@
       <c r="G172" s="3">
         <v>1013</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="4">
         <v>13</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>42907</v>
       </c>
@@ -5544,14 +5543,14 @@
       <c r="G173" s="3">
         <v>1012</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="4">
         <v>11.1</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>42908</v>
       </c>
@@ -5573,14 +5572,14 @@
       <c r="G174" s="3">
         <v>1012</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="4">
         <v>25.9</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>42909</v>
       </c>
@@ -5602,14 +5601,14 @@
       <c r="G175" s="3">
         <v>1012</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>42910</v>
       </c>
@@ -5631,14 +5630,14 @@
       <c r="G176" s="3">
         <v>1008</v>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>42911</v>
       </c>
@@ -5660,14 +5659,14 @@
       <c r="G177" s="3">
         <v>1011</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="4">
         <v>29.6</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>42912</v>
       </c>
@@ -5689,14 +5688,14 @@
       <c r="G178" s="3">
         <v>1012</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="4">
         <v>14.8</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>42913</v>
       </c>
@@ -5718,14 +5717,14 @@
       <c r="G179" s="3">
         <v>1017</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="4">
         <v>13</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>42914</v>
       </c>
@@ -5747,14 +5746,14 @@
       <c r="G180" s="3">
         <v>1020</v>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="4">
         <v>13</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>42915</v>
       </c>
@@ -5776,14 +5775,14 @@
       <c r="G181" s="3">
         <v>1022</v>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="4">
         <v>13</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>42916</v>
       </c>
@@ -5805,14 +5804,14 @@
       <c r="G182" s="3">
         <v>1018</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="4">
         <v>27.8</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>42917</v>
       </c>
@@ -5834,14 +5833,14 @@
       <c r="G183" s="3">
         <v>1012</v>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="4">
         <v>16.7</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42918</v>
       </c>
@@ -5863,14 +5862,14 @@
       <c r="G184" s="3">
         <v>1012</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>42919</v>
       </c>
@@ -5892,14 +5891,14 @@
       <c r="G185" s="3">
         <v>1013</v>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="4">
         <v>16.7</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42920</v>
       </c>
@@ -5921,14 +5920,14 @@
       <c r="G186" s="3">
         <v>1017</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="4">
         <v>22.2</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>42921</v>
       </c>
@@ -5950,14 +5949,14 @@
       <c r="G187" s="3">
         <v>1020</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42922</v>
       </c>
@@ -5979,14 +5978,14 @@
       <c r="G188" s="3">
         <v>1020</v>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="4">
         <v>13</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>42923</v>
       </c>
@@ -6008,14 +6007,14 @@
       <c r="G189" s="3">
         <v>1019</v>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="4">
         <v>13</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>42924</v>
       </c>
@@ -6037,14 +6036,14 @@
       <c r="G190" s="3">
         <v>1019</v>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>42925</v>
       </c>
@@ -6066,14 +6065,14 @@
       <c r="G191" s="3">
         <v>1020</v>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="4">
         <v>14.8</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>42926</v>
       </c>
@@ -6095,14 +6094,14 @@
       <c r="G192" s="3">
         <v>1016</v>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="4">
         <v>13</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>42927</v>
       </c>
@@ -6124,14 +6123,14 @@
       <c r="G193" s="3">
         <v>1013</v>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="4">
         <v>18.5</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>42928</v>
       </c>
@@ -6153,14 +6152,14 @@
       <c r="G194" s="3">
         <v>1014</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="4">
         <v>16.7</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>42929</v>
       </c>
@@ -6182,14 +6181,14 @@
       <c r="G195" s="3">
         <v>1018</v>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="4">
         <v>14.8</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>42930</v>
       </c>
@@ -6211,14 +6210,14 @@
       <c r="G196" s="3">
         <v>1019</v>
       </c>
-      <c r="H196" s="3">
+      <c r="H196" s="4">
         <v>24.1</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>42931</v>
       </c>
@@ -6240,14 +6239,14 @@
       <c r="G197" s="3">
         <v>1018</v>
       </c>
-      <c r="H197" s="3">
+      <c r="H197" s="4">
         <v>29.6</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>42932</v>
       </c>
@@ -6269,14 +6268,14 @@
       <c r="G198" s="3">
         <v>1027</v>
       </c>
-      <c r="H198" s="3">
+      <c r="H198" s="4">
         <v>14.8</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>42933</v>
       </c>
@@ -6298,14 +6297,14 @@
       <c r="G199" s="3">
         <v>1021</v>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="4">
         <v>13</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>42934</v>
       </c>
@@ -6327,14 +6326,14 @@
       <c r="G200" s="3">
         <v>1017</v>
       </c>
-      <c r="H200" s="3">
+      <c r="H200" s="4">
         <v>16.7</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>42935</v>
       </c>
@@ -6356,14 +6355,14 @@
       <c r="G201" s="3">
         <v>1017</v>
       </c>
-      <c r="H201" s="3">
+      <c r="H201" s="4">
         <v>16.7</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>42936</v>
       </c>
@@ -6385,14 +6384,14 @@
       <c r="G202" s="3">
         <v>1016</v>
       </c>
-      <c r="H202" s="3">
+      <c r="H202" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>42937</v>
       </c>
@@ -6414,14 +6413,14 @@
       <c r="G203" s="3">
         <v>1014</v>
       </c>
-      <c r="H203" s="3">
+      <c r="H203" s="4">
         <v>18.5</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>42938</v>
       </c>
@@ -6443,14 +6442,14 @@
       <c r="G204" s="3">
         <v>1015</v>
       </c>
-      <c r="H204" s="3">
+      <c r="H204" s="4">
         <v>16.7</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>42939</v>
       </c>
@@ -6472,14 +6471,14 @@
       <c r="G205" s="3">
         <v>1020</v>
       </c>
-      <c r="H205" s="3">
+      <c r="H205" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>42940</v>
       </c>
@@ -6501,14 +6500,14 @@
       <c r="G206" s="3">
         <v>1018</v>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="4">
         <v>11.1</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>42941</v>
       </c>
@@ -6530,14 +6529,14 @@
       <c r="G207" s="3">
         <v>1015</v>
       </c>
-      <c r="H207" s="3">
+      <c r="H207" s="4">
         <v>18.5</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>42942</v>
       </c>
@@ -6559,14 +6558,14 @@
       <c r="G208" s="3">
         <v>1014</v>
       </c>
-      <c r="H208" s="3">
+      <c r="H208" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>42943</v>
       </c>
@@ -6588,14 +6587,14 @@
       <c r="G209" s="3">
         <v>1015</v>
       </c>
-      <c r="H209" s="3">
+      <c r="H209" s="4">
         <v>16.7</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>42944</v>
       </c>
@@ -6617,14 +6616,14 @@
       <c r="G210" s="3">
         <v>1017</v>
       </c>
-      <c r="H210" s="3">
+      <c r="H210" s="4">
         <v>13</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>42945</v>
       </c>
@@ -6646,14 +6645,14 @@
       <c r="G211" s="3">
         <v>1018</v>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="4">
         <v>14.8</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>42946</v>
       </c>
@@ -6675,14 +6674,14 @@
       <c r="G212" s="3">
         <v>1017</v>
       </c>
-      <c r="H212" s="3">
+      <c r="H212" s="4">
         <v>16.7</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>42947</v>
       </c>
@@ -6704,14 +6703,14 @@
       <c r="G213" s="3">
         <v>1015</v>
       </c>
-      <c r="H213" s="3">
+      <c r="H213" s="4">
         <v>18.5</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>42948</v>
       </c>
@@ -6733,14 +6732,14 @@
       <c r="G214" s="3">
         <v>1015</v>
       </c>
-      <c r="H214" s="3">
+      <c r="H214" s="4">
         <v>13</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>42949</v>
       </c>
@@ -6762,14 +6761,14 @@
       <c r="G215" s="3">
         <v>1020</v>
       </c>
-      <c r="H215" s="3">
+      <c r="H215" s="4">
         <v>13</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>42950</v>
       </c>
@@ -6791,14 +6790,14 @@
       <c r="G216" s="3">
         <v>1016</v>
       </c>
-      <c r="H216" s="3">
+      <c r="H216" s="4">
         <v>16.7</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>42951</v>
       </c>
@@ -6820,14 +6819,14 @@
       <c r="G217" s="3">
         <v>1016</v>
       </c>
-      <c r="H217" s="3">
+      <c r="H217" s="4">
         <v>18.5</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>42952</v>
       </c>
@@ -6849,14 +6848,14 @@
       <c r="G218" s="3">
         <v>1018</v>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="4">
         <v>16.7</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>42953</v>
       </c>
@@ -6878,14 +6877,14 @@
       <c r="G219" s="3">
         <v>1017</v>
       </c>
-      <c r="H219" s="3">
+      <c r="H219" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>42954</v>
       </c>
@@ -6907,14 +6906,14 @@
       <c r="G220" s="3">
         <v>1017</v>
       </c>
-      <c r="H220" s="3">
+      <c r="H220" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>42955</v>
       </c>
@@ -6936,14 +6935,14 @@
       <c r="G221" s="3">
         <v>1013</v>
       </c>
-      <c r="H221" s="3">
+      <c r="H221" s="4">
         <v>13</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>42956</v>
       </c>
@@ -6965,14 +6964,14 @@
       <c r="G222" s="3">
         <v>1013</v>
       </c>
-      <c r="H222" s="3">
+      <c r="H222" s="4">
         <v>22.2</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>42957</v>
       </c>
@@ -6994,14 +6993,14 @@
       <c r="G223" s="3">
         <v>1015</v>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="4">
         <v>22.2</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>42958</v>
       </c>
@@ -7023,14 +7022,14 @@
       <c r="G224" s="3">
         <v>1016</v>
       </c>
-      <c r="H224" s="3">
+      <c r="H224" s="4">
         <v>18.5</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>42959</v>
       </c>
@@ -7052,14 +7051,14 @@
       <c r="G225" s="3">
         <v>1022</v>
       </c>
-      <c r="H225" s="3">
+      <c r="H225" s="4">
         <v>13</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>42960</v>
       </c>
@@ -7081,14 +7080,14 @@
       <c r="G226" s="3">
         <v>1023</v>
       </c>
-      <c r="H226" s="3">
+      <c r="H226" s="4">
         <v>11.1</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>42961</v>
       </c>
@@ -7110,14 +7109,14 @@
       <c r="G227" s="3">
         <v>1020</v>
       </c>
-      <c r="H227" s="3">
+      <c r="H227" s="4">
         <v>16.7</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>42962</v>
       </c>
@@ -7139,14 +7138,14 @@
       <c r="G228" s="3">
         <v>1020</v>
       </c>
-      <c r="H228" s="3">
+      <c r="H228" s="4">
         <v>16.7</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>42963</v>
       </c>
@@ -7168,14 +7167,14 @@
       <c r="G229" s="3">
         <v>1017</v>
       </c>
-      <c r="H229" s="3">
+      <c r="H229" s="4">
         <v>13</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>42964</v>
       </c>
@@ -7197,14 +7196,14 @@
       <c r="G230" s="3">
         <v>1016</v>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="4">
         <v>16.7</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>42965</v>
       </c>
@@ -7226,14 +7225,14 @@
       <c r="G231" s="3">
         <v>1016</v>
       </c>
-      <c r="H231" s="3">
+      <c r="H231" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>42966</v>
       </c>
@@ -7255,14 +7254,14 @@
       <c r="G232" s="3">
         <v>1019</v>
       </c>
-      <c r="H232" s="3">
+      <c r="H232" s="4">
         <v>13</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>42967</v>
       </c>
@@ -7284,14 +7283,14 @@
       <c r="G233" s="3">
         <v>1018</v>
       </c>
-      <c r="H233" s="3">
+      <c r="H233" s="4">
         <v>7.4</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>42968</v>
       </c>
@@ -7313,14 +7312,14 @@
       <c r="G234" s="3">
         <v>1012</v>
       </c>
-      <c r="H234" s="3">
+      <c r="H234" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>42969</v>
       </c>
@@ -7342,14 +7341,14 @@
       <c r="G235" s="3">
         <v>1013</v>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="4">
         <v>29.6</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>42970</v>
       </c>
@@ -7371,14 +7370,14 @@
       <c r="G236" s="3">
         <v>1015</v>
       </c>
-      <c r="H236" s="3">
+      <c r="H236" s="4">
         <v>18.5</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>42971</v>
       </c>
@@ -7400,14 +7399,14 @@
       <c r="G237" s="3">
         <v>1014</v>
       </c>
-      <c r="H237" s="3">
+      <c r="H237" s="4">
         <v>14.8</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>42972</v>
       </c>
@@ -7429,14 +7428,14 @@
       <c r="G238" s="3">
         <v>1016</v>
       </c>
-      <c r="H238" s="3">
+      <c r="H238" s="4">
         <v>14.8</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>42973</v>
       </c>
@@ -7458,14 +7457,14 @@
       <c r="G239" s="3">
         <v>1018</v>
       </c>
-      <c r="H239" s="3">
+      <c r="H239" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>42974</v>
       </c>
@@ -7487,14 +7486,14 @@
       <c r="G240" s="3">
         <v>1017</v>
       </c>
-      <c r="H240" s="3">
+      <c r="H240" s="4">
         <v>22.2</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>42975</v>
       </c>
@@ -7516,14 +7515,14 @@
       <c r="G241" s="3">
         <v>1017</v>
       </c>
-      <c r="H241" s="3">
+      <c r="H241" s="4">
         <v>24.1</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>42976</v>
       </c>
@@ -7545,14 +7544,14 @@
       <c r="G242" s="3">
         <v>1021</v>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="4">
         <v>16.7</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>42977</v>
       </c>
@@ -7574,14 +7573,14 @@
       <c r="G243" s="3">
         <v>1017</v>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="4">
         <v>14.8</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>42978</v>
       </c>
@@ -7603,14 +7602,14 @@
       <c r="G244" s="3">
         <v>1014</v>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>42979</v>
       </c>
@@ -7632,14 +7631,14 @@
       <c r="G245" s="3">
         <v>1015</v>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="4">
         <v>18.5</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>42980</v>
       </c>
@@ -7661,14 +7660,14 @@
       <c r="G246" s="3">
         <v>1017</v>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="4">
         <v>24.1</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>42981</v>
       </c>
@@ -7690,14 +7689,14 @@
       <c r="G247" s="3">
         <v>1019</v>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="4">
         <v>24.1</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>42982</v>
       </c>
@@ -7719,14 +7718,14 @@
       <c r="G248" s="3">
         <v>1022</v>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="4">
         <v>16.7</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>42983</v>
       </c>
@@ -7748,14 +7747,14 @@
       <c r="G249" s="3">
         <v>1017</v>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="4">
         <v>18.5</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>42984</v>
       </c>
@@ -7777,14 +7776,14 @@
       <c r="G250" s="3">
         <v>1017</v>
       </c>
-      <c r="H250" s="3">
+      <c r="H250" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>42985</v>
       </c>
@@ -7806,14 +7805,14 @@
       <c r="G251" s="3">
         <v>1015</v>
       </c>
-      <c r="H251" s="3">
+      <c r="H251" s="4">
         <v>25.9</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>42986</v>
       </c>
@@ -7835,14 +7834,14 @@
       <c r="G252" s="3">
         <v>1016</v>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="4">
         <v>24.1</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>42987</v>
       </c>
@@ -7864,14 +7863,14 @@
       <c r="G253" s="3">
         <v>1014</v>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="4">
         <v>14.8</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>42988</v>
       </c>
@@ -7893,14 +7892,14 @@
       <c r="G254" s="3">
         <v>1018</v>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="4">
         <v>22.2</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>42989</v>
       </c>
@@ -7922,14 +7921,14 @@
       <c r="G255" s="3">
         <v>1016</v>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="4">
         <v>9.3000000000000007</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>42990</v>
       </c>
@@ -7951,14 +7950,14 @@
       <c r="G256" s="3">
         <v>1016</v>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="4">
         <v>24.1</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>42991</v>
       </c>
@@ -7980,14 +7979,14 @@
       <c r="G257" s="3">
         <v>1020</v>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>42992</v>
       </c>
@@ -8009,14 +8008,14 @@
       <c r="G258" s="3">
         <v>1022</v>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="4">
         <v>18.5</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>42993</v>
       </c>
@@ -8038,14 +8037,14 @@
       <c r="G259" s="3">
         <v>1019</v>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="4">
         <v>16.7</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>42994</v>
       </c>
@@ -8067,14 +8066,14 @@
       <c r="G260" s="3">
         <v>1012</v>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="4">
         <v>24.1</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>42995</v>
       </c>
@@ -8096,14 +8095,14 @@
       <c r="G261" s="3">
         <v>1013</v>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="4">
         <v>24.1</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>42996</v>
       </c>
@@ -8125,14 +8124,14 @@
       <c r="G262" s="3">
         <v>1011</v>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="4">
         <v>24.1</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>42997</v>
       </c>
@@ -8154,14 +8153,14 @@
       <c r="G263" s="3">
         <v>1015</v>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>42998</v>
       </c>
@@ -8183,14 +8182,14 @@
       <c r="G264" s="3">
         <v>1022</v>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="4">
         <v>22.2</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>42999</v>
       </c>
@@ -8212,14 +8211,14 @@
       <c r="G265" s="3">
         <v>1019</v>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>43000</v>
       </c>
@@ -8241,14 +8240,14 @@
       <c r="G266" s="3">
         <v>1015</v>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="4">
         <v>18.5</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>43001</v>
       </c>
@@ -8270,14 +8269,14 @@
       <c r="G267" s="3">
         <v>1012</v>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>43002</v>
       </c>
@@ -8299,14 +8298,14 @@
       <c r="G268" s="3">
         <v>1016</v>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="4">
         <v>24.1</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>43003</v>
       </c>
@@ -8328,14 +8327,14 @@
       <c r="G269" s="3">
         <v>1017</v>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="4">
         <v>18.5</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>43004</v>
       </c>
@@ -8357,14 +8356,14 @@
       <c r="G270" s="3">
         <v>1014</v>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="4">
         <v>22.2</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>43005</v>
       </c>
@@ -8386,14 +8385,14 @@
       <c r="G271" s="3">
         <v>1012</v>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="4">
         <v>18.5</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>43006</v>
       </c>
@@ -8415,14 +8414,14 @@
       <c r="G272" s="3">
         <v>1014</v>
       </c>
-      <c r="H272" s="3">
+      <c r="H272" s="4">
         <v>18.5</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>43007</v>
       </c>
@@ -8444,14 +8443,14 @@
       <c r="G273" s="3">
         <v>1016</v>
       </c>
-      <c r="H273" s="3">
+      <c r="H273" s="4">
         <v>25.9</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>43008</v>
       </c>
@@ -8473,14 +8472,14 @@
       <c r="G274" s="3">
         <v>1013</v>
       </c>
-      <c r="H274" s="3">
+      <c r="H274" s="4">
         <v>37</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>43009</v>
       </c>
@@ -8502,14 +8501,14 @@
       <c r="G275" s="3">
         <v>1018</v>
       </c>
-      <c r="H275" s="3">
+      <c r="H275" s="4">
         <v>24.1</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>43010</v>
       </c>
@@ -8531,14 +8530,14 @@
       <c r="G276" s="3">
         <v>1019</v>
       </c>
-      <c r="H276" s="3">
+      <c r="H276" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>43011</v>
       </c>
@@ -8560,14 +8559,14 @@
       <c r="G277" s="3">
         <v>1014</v>
       </c>
-      <c r="H277" s="3">
+      <c r="H277" s="4">
         <v>25.9</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>43012</v>
       </c>
@@ -8589,14 +8588,14 @@
       <c r="G278" s="3">
         <v>1013</v>
       </c>
-      <c r="H278" s="3">
+      <c r="H278" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>43013</v>
       </c>
@@ -8618,14 +8617,14 @@
       <c r="G279" s="3">
         <v>1014</v>
       </c>
-      <c r="H279" s="3">
+      <c r="H279" s="4">
         <v>31.5</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>43014</v>
       </c>
@@ -8647,14 +8646,14 @@
       <c r="G280" s="3">
         <v>1013</v>
       </c>
-      <c r="H280" s="3">
+      <c r="H280" s="4">
         <v>22.2</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>43015</v>
       </c>
@@ -8676,14 +8675,14 @@
       <c r="G281" s="3">
         <v>1014</v>
       </c>
-      <c r="H281" s="3">
+      <c r="H281" s="4">
         <v>29.5</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>43016</v>
       </c>
@@ -8705,14 +8704,14 @@
       <c r="G282" s="3">
         <v>1019</v>
       </c>
-      <c r="H282" s="3">
+      <c r="H282" s="4">
         <v>22.2</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>43017</v>
       </c>
@@ -8734,14 +8733,14 @@
       <c r="G283" s="3">
         <v>1016</v>
       </c>
-      <c r="H283" s="3">
+      <c r="H283" s="4">
         <v>22.2</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>43018</v>
       </c>
@@ -8763,14 +8762,14 @@
       <c r="G284" s="3">
         <v>1015</v>
       </c>
-      <c r="H284" s="3">
+      <c r="H284" s="4">
         <v>29.6</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>43019</v>
       </c>
@@ -8792,14 +8791,14 @@
       <c r="G285" s="3">
         <v>1016</v>
       </c>
-      <c r="H285" s="3">
+      <c r="H285" s="4">
         <v>27.8</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>43020</v>
       </c>
@@ -8821,14 +8820,14 @@
       <c r="G286" s="3">
         <v>1019</v>
       </c>
-      <c r="H286" s="3">
+      <c r="H286" s="4">
         <v>22.2</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>43021</v>
       </c>
@@ -8850,14 +8849,14 @@
       <c r="G287" s="3">
         <v>1018</v>
       </c>
-      <c r="H287" s="3">
+      <c r="H287" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>43022</v>
       </c>
@@ -8879,14 +8878,14 @@
       <c r="G288" s="3">
         <v>1011</v>
       </c>
-      <c r="H288" s="3">
+      <c r="H288" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>43023</v>
       </c>
@@ -8908,14 +8907,14 @@
       <c r="G289" s="3">
         <v>1010</v>
       </c>
-      <c r="H289" s="3">
+      <c r="H289" s="4">
         <v>27.4</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>43024</v>
       </c>
@@ -8937,14 +8936,14 @@
       <c r="G290" s="3">
         <v>1011</v>
       </c>
-      <c r="H290" s="3">
+      <c r="H290" s="4">
         <v>24.1</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>43025</v>
       </c>
@@ -8966,14 +8965,14 @@
       <c r="G291" s="3">
         <v>1015</v>
       </c>
-      <c r="H291" s="3">
+      <c r="H291" s="4">
         <v>27.8</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>43026</v>
       </c>
@@ -8995,14 +8994,14 @@
       <c r="G292" s="3">
         <v>1016</v>
       </c>
-      <c r="H292" s="3">
+      <c r="H292" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>43027</v>
       </c>
@@ -9024,14 +9023,14 @@
       <c r="G293" s="3">
         <v>1011</v>
       </c>
-      <c r="H293" s="3">
+      <c r="H293" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>43028</v>
       </c>
@@ -9053,14 +9052,14 @@
       <c r="G294" s="3">
         <v>1012</v>
       </c>
-      <c r="H294" s="3">
+      <c r="H294" s="4">
         <v>24.1</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>43029</v>
       </c>
@@ -9082,14 +9081,14 @@
       <c r="G295" s="3">
         <v>1014</v>
       </c>
-      <c r="H295" s="3">
+      <c r="H295" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>43030</v>
       </c>
@@ -9111,14 +9110,14 @@
       <c r="G296" s="3">
         <v>1014</v>
       </c>
-      <c r="H296" s="3">
+      <c r="H296" s="4">
         <v>25.9</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>43031</v>
       </c>
@@ -9140,14 +9139,14 @@
       <c r="G297" s="3">
         <v>1015</v>
       </c>
-      <c r="H297" s="3">
+      <c r="H297" s="4">
         <v>29.6</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>43032</v>
       </c>
@@ -9169,14 +9168,14 @@
       <c r="G298" s="3">
         <v>1015</v>
       </c>
-      <c r="H298" s="3">
+      <c r="H298" s="4">
         <v>24.1</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>43033</v>
       </c>
@@ -9198,14 +9197,14 @@
       <c r="G299" s="3">
         <v>1013</v>
       </c>
-      <c r="H299" s="3">
+      <c r="H299" s="4">
         <v>24.1</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>43034</v>
       </c>
@@ -9227,14 +9226,14 @@
       <c r="G300" s="3">
         <v>1014</v>
       </c>
-      <c r="H300" s="3">
+      <c r="H300" s="4">
         <v>25.9</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>43035</v>
       </c>
@@ -9256,14 +9255,14 @@
       <c r="G301" s="3">
         <v>1011</v>
       </c>
-      <c r="H301" s="3">
+      <c r="H301" s="4">
         <v>27.8</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>43036</v>
       </c>
@@ -9285,14 +9284,14 @@
       <c r="G302" s="3">
         <v>1012</v>
       </c>
-      <c r="H302" s="3">
+      <c r="H302" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>43037</v>
       </c>
@@ -9314,14 +9313,14 @@
       <c r="G303" s="3">
         <v>1018</v>
       </c>
-      <c r="H303" s="3">
+      <c r="H303" s="4">
         <v>22.2</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>43038</v>
       </c>
@@ -9343,14 +9342,14 @@
       <c r="G304" s="3">
         <v>1018</v>
       </c>
-      <c r="H304" s="3">
+      <c r="H304" s="4">
         <v>22.2</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>43039</v>
       </c>
@@ -9372,14 +9371,14 @@
       <c r="G305" s="3">
         <v>1015</v>
       </c>
-      <c r="H305" s="3">
+      <c r="H305" s="4">
         <v>24.1</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>43040</v>
       </c>
@@ -9401,14 +9400,14 @@
       <c r="G306" s="3">
         <v>1015</v>
       </c>
-      <c r="H306" s="3">
+      <c r="H306" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>43041</v>
       </c>
@@ -9430,14 +9429,14 @@
       <c r="G307" s="3">
         <v>1015</v>
       </c>
-      <c r="H307" s="3">
+      <c r="H307" s="4">
         <v>31.5</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>43042</v>
       </c>
@@ -9459,14 +9458,14 @@
       <c r="G308" s="3">
         <v>1015</v>
       </c>
-      <c r="H308" s="3">
+      <c r="H308" s="4">
         <v>29.6</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>43043</v>
       </c>
@@ -9488,14 +9487,14 @@
       <c r="G309" s="3">
         <v>1015</v>
       </c>
-      <c r="H309" s="3">
+      <c r="H309" s="4">
         <v>25.9</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>43044</v>
       </c>
@@ -9517,14 +9516,14 @@
       <c r="G310" s="3">
         <v>1015</v>
       </c>
-      <c r="H310" s="3">
+      <c r="H310" s="4">
         <v>25.9</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>43045</v>
       </c>
@@ -9546,14 +9545,14 @@
       <c r="G311" s="3">
         <v>1015</v>
       </c>
-      <c r="H311" s="3">
+      <c r="H311" s="4">
         <v>24.1</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>43046</v>
       </c>
@@ -9575,14 +9574,14 @@
       <c r="G312" s="3">
         <v>1015</v>
       </c>
-      <c r="H312" s="3">
+      <c r="H312" s="4">
         <v>25.9</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>43047</v>
       </c>
@@ -9604,14 +9603,14 @@
       <c r="G313" s="3">
         <v>1014</v>
       </c>
-      <c r="H313" s="3">
+      <c r="H313" s="4">
         <v>25.9</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>43048</v>
       </c>
@@ -9633,14 +9632,14 @@
       <c r="G314" s="3">
         <v>1015</v>
       </c>
-      <c r="H314" s="3">
+      <c r="H314" s="4">
         <v>27.8</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>43049</v>
       </c>
@@ -9662,14 +9661,14 @@
       <c r="G315" s="3">
         <v>1010</v>
       </c>
-      <c r="H315" s="3">
+      <c r="H315" s="4">
         <v>25.9</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>43050</v>
       </c>
@@ -9691,14 +9690,14 @@
       <c r="G316" s="3">
         <v>1009</v>
       </c>
-      <c r="H316" s="3">
+      <c r="H316" s="4">
         <v>27.8</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>43051</v>
       </c>
@@ -9720,14 +9719,14 @@
       <c r="G317" s="3">
         <v>1010</v>
       </c>
-      <c r="H317" s="3">
+      <c r="H317" s="4">
         <v>29.6</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>43052</v>
       </c>
@@ -9749,14 +9748,14 @@
       <c r="G318" s="3">
         <v>1012</v>
       </c>
-      <c r="H318" s="3">
+      <c r="H318" s="4">
         <v>24.1</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>43053</v>
       </c>
@@ -9778,14 +9777,14 @@
       <c r="G319" s="3">
         <v>1012</v>
       </c>
-      <c r="H319" s="3">
+      <c r="H319" s="4">
         <v>31.5</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>43054</v>
       </c>
@@ -9807,14 +9806,14 @@
       <c r="G320" s="3">
         <v>1015</v>
       </c>
-      <c r="H320" s="3">
+      <c r="H320" s="4">
         <v>27.8</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>43055</v>
       </c>
@@ -9836,14 +9835,14 @@
       <c r="G321" s="3">
         <v>1014</v>
       </c>
-      <c r="H321" s="3">
+      <c r="H321" s="4">
         <v>25.9</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>43056</v>
       </c>
@@ -9865,14 +9864,14 @@
       <c r="G322" s="3">
         <v>1014</v>
       </c>
-      <c r="H322" s="3">
+      <c r="H322" s="4">
         <v>27.8</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>43057</v>
       </c>
@@ -9894,14 +9893,14 @@
       <c r="G323" s="3">
         <v>1015</v>
       </c>
-      <c r="H323" s="3">
+      <c r="H323" s="4">
         <v>24.1</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>43058</v>
       </c>
@@ -9923,14 +9922,14 @@
       <c r="G324" s="3">
         <v>1012</v>
       </c>
-      <c r="H324" s="3">
+      <c r="H324" s="4">
         <v>40.700000000000003</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>43059</v>
       </c>
@@ -9952,14 +9951,14 @@
       <c r="G325" s="3">
         <v>1013</v>
       </c>
-      <c r="H325" s="3">
+      <c r="H325" s="4">
         <v>24.1</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>43060</v>
       </c>
@@ -9981,14 +9980,14 @@
       <c r="G326" s="3">
         <v>1015</v>
       </c>
-      <c r="H326" s="3">
+      <c r="H326" s="4">
         <v>24.1</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>43061</v>
       </c>
@@ -10010,14 +10009,14 @@
       <c r="G327" s="3">
         <v>1010</v>
       </c>
-      <c r="H327" s="3">
+      <c r="H327" s="4">
         <v>31.5</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>43062</v>
       </c>
@@ -10039,14 +10038,14 @@
       <c r="G328" s="3">
         <v>1011</v>
       </c>
-      <c r="H328" s="3">
+      <c r="H328" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>43063</v>
       </c>
@@ -10068,14 +10067,14 @@
       <c r="G329" s="3">
         <v>1013</v>
       </c>
-      <c r="H329" s="3">
+      <c r="H329" s="4">
         <v>27.8</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>43064</v>
       </c>
@@ -10097,14 +10096,14 @@
       <c r="G330" s="3">
         <v>1011</v>
       </c>
-      <c r="H330" s="3">
+      <c r="H330" s="4">
         <v>25.9</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>43065</v>
       </c>
@@ -10126,14 +10125,14 @@
       <c r="G331" s="3">
         <v>1012</v>
       </c>
-      <c r="H331" s="3">
+      <c r="H331" s="4">
         <v>29.6</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>43066</v>
       </c>
@@ -10155,14 +10154,14 @@
       <c r="G332" s="3">
         <v>1009</v>
       </c>
-      <c r="H332" s="3">
+      <c r="H332" s="4">
         <v>27.8</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>43067</v>
       </c>
@@ -10184,14 +10183,14 @@
       <c r="G333" s="3">
         <v>1010</v>
       </c>
-      <c r="H333" s="3">
+      <c r="H333" s="4">
         <v>27.8</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>43068</v>
       </c>
@@ -10213,14 +10212,14 @@
       <c r="G334" s="3">
         <v>1015</v>
       </c>
-      <c r="H334" s="3">
+      <c r="H334" s="4">
         <v>25.9</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>43069</v>
       </c>
@@ -10242,14 +10241,14 @@
       <c r="G335" s="3">
         <v>1011</v>
       </c>
-      <c r="H335" s="3">
+      <c r="H335" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>43070</v>
       </c>
@@ -10271,14 +10270,14 @@
       <c r="G336" s="3">
         <v>1011</v>
       </c>
-      <c r="H336" s="3">
+      <c r="H336" s="4">
         <v>25.9</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>43071</v>
       </c>
@@ -10300,14 +10299,14 @@
       <c r="G337" s="3">
         <v>1012</v>
       </c>
-      <c r="H337" s="3">
+      <c r="H337" s="4">
         <v>29.6</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>43072</v>
       </c>
@@ -10329,14 +10328,14 @@
       <c r="G338" s="3">
         <v>1013</v>
       </c>
-      <c r="H338" s="3">
+      <c r="H338" s="4">
         <v>22.2</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>43073</v>
       </c>
@@ -10358,14 +10357,14 @@
       <c r="G339" s="3">
         <v>1011</v>
       </c>
-      <c r="H339" s="3">
+      <c r="H339" s="4">
         <v>27.8</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>43074</v>
       </c>
@@ -10387,14 +10386,14 @@
       <c r="G340" s="3">
         <v>1011</v>
       </c>
-      <c r="H340" s="3">
+      <c r="H340" s="4">
         <v>25.9</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>43075</v>
       </c>
@@ -10416,14 +10415,14 @@
       <c r="G341" s="3">
         <v>1013</v>
       </c>
-      <c r="H341" s="3">
+      <c r="H341" s="4">
         <v>31.5</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>43076</v>
       </c>
@@ -10445,14 +10444,14 @@
       <c r="G342" s="3">
         <v>1012</v>
       </c>
-      <c r="H342" s="3">
+      <c r="H342" s="4">
         <v>25.9</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>43077</v>
       </c>
@@ -10474,14 +10473,14 @@
       <c r="G343" s="3">
         <v>1013</v>
       </c>
-      <c r="H343" s="3">
+      <c r="H343" s="4">
         <v>29.6</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>43078</v>
       </c>
@@ -10503,14 +10502,14 @@
       <c r="G344" s="3">
         <v>1014</v>
       </c>
-      <c r="H344" s="3">
+      <c r="H344" s="4">
         <v>29.6</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>43079</v>
       </c>
@@ -10532,14 +10531,14 @@
       <c r="G345" s="3">
         <v>1010</v>
       </c>
-      <c r="H345" s="3">
+      <c r="H345" s="4">
         <v>37</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>43080</v>
       </c>
@@ -10561,14 +10560,14 @@
       <c r="G346" s="3">
         <v>1012</v>
       </c>
-      <c r="H346" s="3">
+      <c r="H346" s="4">
         <v>31.5</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>43081</v>
       </c>
@@ -10590,14 +10589,14 @@
       <c r="G347" s="3">
         <v>1013</v>
       </c>
-      <c r="H347" s="3">
+      <c r="H347" s="4">
         <v>25.9</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>43082</v>
       </c>
@@ -10619,14 +10618,14 @@
       <c r="G348" s="3">
         <v>1017</v>
       </c>
-      <c r="H348" s="3">
+      <c r="H348" s="4">
         <v>25.9</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>43083</v>
       </c>
@@ -10648,14 +10647,14 @@
       <c r="G349" s="3">
         <v>1013</v>
       </c>
-      <c r="H349" s="3">
+      <c r="H349" s="4">
         <v>25.9</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>43084</v>
       </c>
@@ -10677,14 +10676,14 @@
       <c r="G350" s="3">
         <v>1009</v>
       </c>
-      <c r="H350" s="3">
+      <c r="H350" s="4">
         <v>35.200000000000003</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>43085</v>
       </c>
@@ -10706,14 +10705,14 @@
       <c r="G351" s="3">
         <v>1010</v>
       </c>
-      <c r="H351" s="3">
+      <c r="H351" s="4">
         <v>35.200000000000003</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>43086</v>
       </c>
@@ -10735,14 +10734,14 @@
       <c r="G352" s="3">
         <v>1012</v>
       </c>
-      <c r="H352" s="3">
+      <c r="H352" s="4">
         <v>24.1</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>43087</v>
       </c>
@@ -10764,14 +10763,14 @@
       <c r="G353" s="3">
         <v>1011</v>
       </c>
-      <c r="H353" s="3">
+      <c r="H353" s="4">
         <v>27.8</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>43088</v>
       </c>
@@ -10793,14 +10792,14 @@
       <c r="G354" s="3">
         <v>1010</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354" s="4">
         <v>29.6</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>43089</v>
       </c>
@@ -10822,14 +10821,14 @@
       <c r="G355" s="3">
         <v>1011</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355" s="4">
         <v>31.5</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>43090</v>
       </c>
@@ -10851,14 +10850,14 @@
       <c r="G356" s="3">
         <v>1012</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356" s="4">
         <v>29.6</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>43091</v>
       </c>
@@ -10880,14 +10879,14 @@
       <c r="G357" s="3">
         <v>1012</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357" s="4">
         <v>29.6</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>43092</v>
       </c>
@@ -10909,14 +10908,14 @@
       <c r="G358" s="3">
         <v>1012</v>
       </c>
-      <c r="H358" s="3">
+      <c r="H358" s="4">
         <v>31.5</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>43093</v>
       </c>
@@ -10938,14 +10937,14 @@
       <c r="G359" s="3">
         <v>1012</v>
       </c>
-      <c r="H359" s="3">
+      <c r="H359" s="4">
         <v>27.8</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>43094</v>
       </c>
@@ -10967,14 +10966,14 @@
       <c r="G360" s="3">
         <v>1011</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360" s="4">
         <v>31.5</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>43095</v>
       </c>
@@ -10996,14 +10995,14 @@
       <c r="G361" s="3">
         <v>1012</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361" s="4">
         <v>27.8</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>43096</v>
       </c>
@@ -11025,14 +11024,14 @@
       <c r="G362" s="3">
         <v>1014</v>
       </c>
-      <c r="H362" s="3">
+      <c r="H362" s="4">
         <v>27.8</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>43097</v>
       </c>
@@ -11054,14 +11053,14 @@
       <c r="G363" s="3">
         <v>1013</v>
       </c>
-      <c r="H363" s="3">
+      <c r="H363" s="4">
         <v>29.6</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>43098</v>
       </c>
@@ -11083,14 +11082,14 @@
       <c r="G364" s="3">
         <v>1012</v>
       </c>
-      <c r="H364" s="3">
+      <c r="H364" s="4">
         <v>35.200000000000003</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>43099</v>
       </c>
@@ -11112,14 +11111,14 @@
       <c r="G365" s="3">
         <v>1012</v>
       </c>
-      <c r="H365" s="3">
+      <c r="H365" s="4">
         <v>31.5</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>43100</v>
       </c>
@@ -11141,15 +11140,21 @@
       <c r="G366" s="3">
         <v>1012</v>
       </c>
-      <c r="H366" s="3">
+      <c r="H366" s="4">
         <v>27.8</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I366" xr:uid="{81AA44E1-54AD-324E-BFC7-867A04642C67}"/>
+  <autoFilter ref="A1:I366" xr:uid="{81AA44E1-54AD-324E-BFC7-867A04642C67}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="931"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>